--- a/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
+++ b/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +665,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -738,7 +744,6 @@
           <t>April 2024</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
           <t>2021-06-016</t>
@@ -774,7 +779,6 @@
           <t>KNB Construction</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
@@ -811,20 +815,16 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -883,7 +883,6 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>Reverted</t>
@@ -892,17 +891,6 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
         <v>1</v>
       </c>
@@ -939,12 +927,6 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -1024,7 +1006,6 @@
           <t>April 2024</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
           <t>2021-06-017</t>
@@ -1060,7 +1041,6 @@
           <t>KNB Construction</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
@@ -1097,18 +1077,14 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="n">
         <v>4.24</v>
       </c>
-      <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr">
         <is>
           <t>cy 2024</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1188,14 +1164,11 @@
           <t>November 5, 2021</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
           <t>2021-02-004</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
           <t>December 17, 2020</t>
@@ -1216,7 +1189,6 @@
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -1253,20 +1225,16 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1346,7 +1314,6 @@
           <t>April 28, 2023</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>2021-06-015</t>
@@ -1423,7 +1390,6 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
         <v>2.23</v>
       </c>
@@ -1437,8 +1403,6 @@
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1518,7 +1482,6 @@
           <t>January 10,2022</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
           <t>2021-06-013</t>
@@ -1595,7 +1558,6 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1606,9 +1568,6 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1688,7 +1647,6 @@
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
           <t>2021-06-014</t>
@@ -1724,7 +1682,6 @@
           <t>Lucky Gems Construction</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
@@ -1761,7 +1718,6 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1772,9 +1728,6 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1935,7 +1888,6 @@
       <c r="AM9" t="n">
         <v>0.15</v>
       </c>
-      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="n">
         <v>5.25</v>
       </c>
@@ -1944,9 +1896,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -2107,7 +2056,6 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="n">
         <v>7.24</v>
       </c>
@@ -2116,9 +2064,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2281,21 +2226,90 @@
       <c r="AM11" t="n">
         <v>0.2044</v>
       </c>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="n">
         <v>10</v>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
           <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
+++ b/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
@@ -779,41 +779,8 @@
           <t>KNB Construction</t>
         </is>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
       <c r="AL2" t="n">
         <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -891,40 +858,7 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
       <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1041,41 +975,8 @@
           <t>KNB Construction</t>
         </is>
       </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
       <c r="AL4" t="n">
         <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
       </c>
       <c r="AO4" t="n">
         <v>4.24</v>
@@ -1189,41 +1090,8 @@
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
       <c r="AL5" t="n">
         <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1354,41 +1222,8 @@
           <t>Total CA due to variation: 24,376,207.54</t>
         </is>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
       <c r="AL6" t="n">
         <v>1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
       </c>
       <c r="AO6" t="n">
         <v>2.23</v>
@@ -1522,41 +1357,8 @@
           <t>Total CA due to variation: 4,798,651.92</t>
         </is>
       </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
       <c r="AL7" t="n">
         <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1682,41 +1484,8 @@
           <t>Lucky Gems Construction</t>
         </is>
       </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
       <c r="AL8" t="n">
         <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1852,41 +1621,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
       <c r="AL9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.15</v>
       </c>
       <c r="AO9" t="n">
         <v>5.25</v>
@@ -2020,41 +1756,8 @@
           <t>with time extension and additional works Savings Contract: 4,024,727.00 CD: 90 CD</t>
         </is>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1</v>
-      </c>
       <c r="AL10" t="n">
         <v>1</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
       </c>
       <c r="AO10" t="n">
         <v>7.24</v>
@@ -2190,41 +1893,8 @@
           <t>On Going Construction with Variation Order</t>
         </is>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
       <c r="AL11" t="n">
         <v>0.1856</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0.2044</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>

--- a/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
+++ b/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
@@ -56,11 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,1349 +572,1123 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Reverted</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Not yet started</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Under Procurement</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg On Going</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Completed</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>PREVIOUS ACCOMPLISHMENT</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>DIFFERENCE</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Projected Date of Completion</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Month Completed</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Implementing Unit</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>BBM TERM COMPLETED</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>AWAITING SUBMISSION OF RTA</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>batch of suballotment</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Batanes</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>500062</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Itbud Integrated School</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>UYUGAN</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="J2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="3" t="n">
         <v>8995156.390000001</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="M2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="n">
         <v>8526166.779999999</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="P2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>October 27, 2021</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>April 2024</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr"/>
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>2021-06-016</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>April 27,2021</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>June 23,2021</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>June 28,2021</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" s="3" t="inlineStr">
         <is>
           <t>KNB Construction</t>
         </is>
       </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>CY 2022</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA2" s="3" t="inlineStr"/>
+      <c r="AB2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Cagayan</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>102442</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Aparri East CS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>APARRI</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="3" t="n">
         <v>8951555.83</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>Reverted</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>REVERTED</t>
-        </is>
-      </c>
+      <c r="Q3" s="3" t="inlineStr"/>
+      <c r="R3" s="3" t="inlineStr"/>
+      <c r="S3" s="3" t="inlineStr"/>
+      <c r="T3" s="3" t="inlineStr"/>
+      <c r="U3" s="3" t="inlineStr"/>
+      <c r="V3" s="3" t="inlineStr"/>
+      <c r="W3" s="3" t="inlineStr"/>
+      <c r="X3" s="3" t="inlineStr"/>
+      <c r="Y3" s="3" t="inlineStr"/>
+      <c r="Z3" s="3" t="inlineStr"/>
+      <c r="AA3" s="3" t="inlineStr"/>
+      <c r="AB3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Cagayan</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3" t="n">
         <v>102403</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Amulung East CS</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>AMULUNG</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="3" t="n">
         <v>8667454.452346232</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="n">
         <v>5526283.97</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="P4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>October 27, 2021</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>April 2024</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr"/>
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>2021-06-017</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>June 23,2021</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>June 28,2021</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="3" t="inlineStr">
         <is>
           <t>KNB Construction</t>
         </is>
       </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>cy 2024</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA4" s="3" t="inlineStr"/>
+      <c r="AB4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>104202</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Imugan ES</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Santa Fe</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="3" t="n">
         <v>7013953.09</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="n">
         <v>7915455.79</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="P5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>August 29, 2021</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>November 5, 2021</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr"/>
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>2021-02-004</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr"/>
+      <c r="W5" s="3" t="inlineStr">
         <is>
           <t>December 17, 2020</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>February 23,2021</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>March 1, 2021</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="3" t="inlineStr">
         <is>
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>CY 2022</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA5" s="3" t="inlineStr"/>
+      <c r="AB5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Batanes</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>102316</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>Itbayat Central School</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>ITBAYAT</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="3" t="n">
         <v>23912552</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="n">
         <v>23896225.01</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="P6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>December 27, 2021</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>April 28, 2023</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr"/>
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>2021-06-015</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>April 6, 2021</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="3" t="inlineStr">
         <is>
           <t>June 29, 2021</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" s="3" t="inlineStr">
         <is>
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6" s="3" t="inlineStr">
         <is>
           <t>Total CA due to variation: 24,376,207.54</t>
         </is>
       </c>
-      <c r="AL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>Regional Office</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>CY 2023</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AB6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>104089</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>Kongkong Elementary School</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>KASIBU</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="3" t="n">
         <v>6795389</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3" t="n">
         <v>4371705.54</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="P7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>October 28, 2021</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>January 10,2022</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr"/>
+      <c r="T7" s="3" t="inlineStr">
         <is>
           <t>2021-06-013</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="3" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="3" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="3" t="inlineStr">
         <is>
           <t>June 29, 2021</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z7" s="3" t="inlineStr">
         <is>
           <t>Zyrrone Construction</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA7" s="3" t="inlineStr">
         <is>
           <t>Total CA due to variation: 4,798,651.92</t>
         </is>
       </c>
-      <c r="AL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>Regional Office</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AB7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Tuguegarao City</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>104406</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>Tuguegarao West CS</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>TUGUEGARAO CITY(Capital)</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="3" t="n">
         <v>9764168</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="n">
         <v>6878702.89</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="P8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="inlineStr">
         <is>
           <t>October 28, 2021</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="S8" s="3" t="inlineStr"/>
+      <c r="T8" s="3" t="inlineStr">
         <is>
           <t>2021-06-014</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="3" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="3" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="3" t="inlineStr">
         <is>
           <t>June 28, 2021</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" s="3" t="inlineStr">
         <is>
           <t>Lucky Gems Construction</t>
         </is>
       </c>
-      <c r="AL8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>Regional Office</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA8" s="3" t="inlineStr"/>
+      <c r="AB8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Batanes</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>102322</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>Ivana Elementary School</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>IVANA</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="3" t="n">
         <v>17516777.66</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3" t="n">
         <v>12530440.87</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="P9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>February 07, 2024</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>March 27, 2025</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>2022-07-0112</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="3" t="inlineStr">
         <is>
           <t>2022-07-0112</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="3" t="inlineStr">
         <is>
           <t>July 12, 2022</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>July 12, 2022</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" s="3" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" s="3" t="inlineStr">
         <is>
           <t>October 17, 2022</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="3" t="inlineStr">
         <is>
           <t>October 20, 2022</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="Z9" s="3" t="inlineStr">
         <is>
           <t>Wakaii Construction</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AA9" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AL9" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AB9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3" t="n">
         <v>104173</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>Solano East CS</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>SOLANO</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="3" t="n">
         <v>12975814.87</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3" t="n">
         <v>8950988.1</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="P10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>April 7, 2024</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t>September 15, 2024</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>PB5-001-SDONV-GABALDON-SECS-INFRA</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="3" t="inlineStr">
         <is>
           <t>PB5-001-SDONV-GABALDON-SECS-INFRA</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr">
         <is>
           <t>May 19, 2023</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>May 25, 2023</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W10" s="3" t="inlineStr">
         <is>
           <t>June 6, 2023</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" s="3" t="inlineStr">
         <is>
           <t>July 10, 2023</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="3" t="inlineStr">
         <is>
           <t>August 4, 2023</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="Z10" s="3" t="inlineStr">
         <is>
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA10" s="3" t="inlineStr">
         <is>
           <t>with time extension and additional works Savings Contract: 4,024,727.00 CD: 90 CD</t>
         </is>
       </c>
-      <c r="AL10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AB10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="3" t="n">
         <v>104182</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>Solano North ES</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>SOLANO</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="3" t="n">
         <v>18633863.75</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
         <v>11953716.99</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="3" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="3" t="n">
         <v>0.39</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>May 26, 2025</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>PB 10-001 S.2024</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="3" t="inlineStr">
         <is>
           <t>PB 10-001 S.2024</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="3" t="inlineStr">
         <is>
           <t>August 6, 2024</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="3" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W11" s="3" t="inlineStr">
         <is>
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" s="3" t="inlineStr">
         <is>
           <t>October 3, 2024</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="3" t="inlineStr">
         <is>
           <t>December 27, 2024</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z11" s="3" t="inlineStr">
         <is>
           <t>KNB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA11" s="3" t="inlineStr">
         <is>
           <t>On Going Construction with Variation Order</t>
         </is>
       </c>
-      <c r="AL11" t="n">
-        <v>0.1856</v>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AB11" s="3" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AU2:AU11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
+++ b/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
@@ -30,12 +30,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,13 +62,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,1260 +443,1291 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="58" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="35" customWidth="1" min="19" max="19"/>
+    <col width="35" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="25" customWidth="1" min="26" max="26"/>
+    <col width="83" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Batanes</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>500062</v>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Itbud Integrated School</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>UYUGAN</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="4" t="n">
         <v>8995156.390000001</v>
       </c>
-      <c r="M2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="n">
+      <c r="M2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>8526166.779999999</v>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>October 27, 2021</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>April 2024</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr"/>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr"/>
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>2021-06-016</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>April 27,2021</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>June 23,2021</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>June 28,2021</t>
         </is>
       </c>
-      <c r="Z2" s="3" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>KNB Construction</t>
         </is>
       </c>
-      <c r="AA2" s="3" t="inlineStr"/>
-      <c r="AB2" s="3" t="n"/>
+      <c r="AA2" s="4" t="inlineStr"/>
+      <c r="AB2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Cagayan</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>102442</v>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Aparri East CS</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>APARRI</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="n">
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="4" t="n">
         <v>8951555.83</v>
       </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="M3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="inlineStr"/>
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Reverted</t>
         </is>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="3" t="inlineStr"/>
-      <c r="R3" s="3" t="inlineStr"/>
-      <c r="S3" s="3" t="inlineStr"/>
-      <c r="T3" s="3" t="inlineStr"/>
-      <c r="U3" s="3" t="inlineStr"/>
-      <c r="V3" s="3" t="inlineStr"/>
-      <c r="W3" s="3" t="inlineStr"/>
-      <c r="X3" s="3" t="inlineStr"/>
-      <c r="Y3" s="3" t="inlineStr"/>
-      <c r="Z3" s="3" t="inlineStr"/>
-      <c r="AA3" s="3" t="inlineStr"/>
-      <c r="AB3" s="3" t="n"/>
+      <c r="Q3" s="4" t="inlineStr"/>
+      <c r="R3" s="4" t="inlineStr"/>
+      <c r="S3" s="4" t="inlineStr"/>
+      <c r="T3" s="4" t="inlineStr"/>
+      <c r="U3" s="4" t="inlineStr"/>
+      <c r="V3" s="4" t="inlineStr"/>
+      <c r="W3" s="4" t="inlineStr"/>
+      <c r="X3" s="4" t="inlineStr"/>
+      <c r="Y3" s="4" t="inlineStr"/>
+      <c r="Z3" s="4" t="inlineStr"/>
+      <c r="AA3" s="4" t="inlineStr"/>
+      <c r="AB3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Cagayan</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>102403</v>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Amulung East CS</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>AMULUNG</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="4" t="n">
         <v>8667454.452346232</v>
       </c>
-      <c r="M4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="n">
+      <c r="M4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>5526283.97</v>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="P4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>October 27, 2021</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>April 2024</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr"/>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr"/>
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>2021-06-017</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>June 23,2021</t>
         </is>
       </c>
-      <c r="Y4" s="3" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>June 28,2021</t>
         </is>
       </c>
-      <c r="Z4" s="3" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>KNB Construction</t>
         </is>
       </c>
-      <c r="AA4" s="3" t="inlineStr"/>
-      <c r="AB4" s="3" t="n"/>
+      <c r="AA4" s="4" t="inlineStr"/>
+      <c r="AB4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>104202</v>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Imugan ES</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Santa Fe</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="n">
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="4" t="n">
         <v>7013953.09</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="n">
+      <c r="M5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>7915455.79</v>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>August 29, 2021</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>November 5, 2021</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr"/>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>2021-02-004</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr"/>
-      <c r="V5" s="3" t="inlineStr"/>
-      <c r="W5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr"/>
+      <c r="V5" s="4" t="inlineStr"/>
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>December 17, 2020</t>
         </is>
       </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>February 23,2021</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>March 1, 2021</t>
         </is>
       </c>
-      <c r="Z5" s="3" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AA5" s="3" t="inlineStr"/>
-      <c r="AB5" s="3" t="n"/>
+      <c r="AA5" s="4" t="inlineStr"/>
+      <c r="AB5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Batanes</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>102316</v>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>Itbayat Central School</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>ITBAYAT</t>
         </is>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="n">
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="4" t="n">
         <v>23912552</v>
       </c>
-      <c r="M6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="n">
+      <c r="M6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>23896225.01</v>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="P6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>December 27, 2021</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>April 28, 2023</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr"/>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr"/>
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>2021-06-015</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>April 6, 2021</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W6" s="3" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X6" s="3" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Y6" s="3" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>June 29, 2021</t>
         </is>
       </c>
-      <c r="Z6" s="3" t="inlineStr">
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AA6" s="3" t="inlineStr">
+      <c r="AA6" s="4" t="inlineStr">
         <is>
           <t>Total CA due to variation: 24,376,207.54</t>
         </is>
       </c>
-      <c r="AB6" s="3" t="n"/>
+      <c r="AB6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>104089</v>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Kongkong Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>KASIBU</t>
         </is>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="n">
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="4" t="n">
         <v>6795389</v>
       </c>
-      <c r="M7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3" t="n">
+      <c r="M7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="n">
         <v>4371705.54</v>
       </c>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3" t="inlineStr">
+      <c r="P7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>October 28, 2021</t>
         </is>
       </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>January 10,2022</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr"/>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>2021-06-013</t>
         </is>
       </c>
-      <c r="U7" s="3" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V7" s="3" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W7" s="3" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X7" s="3" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Y7" s="3" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>June 29, 2021</t>
         </is>
       </c>
-      <c r="Z7" s="3" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Zyrrone Construction</t>
         </is>
       </c>
-      <c r="AA7" s="3" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Total CA due to variation: 4,798,651.92</t>
         </is>
       </c>
-      <c r="AB7" s="3" t="n"/>
+      <c r="AB7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Tuguegarao City</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>104406</v>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Tuguegarao West CS</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>TUGUEGARAO CITY(Capital)</t>
         </is>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="n">
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="J8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="4" t="n">
         <v>9764168</v>
       </c>
-      <c r="M8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3" t="n">
+      <c r="M8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="n">
         <v>6878702.89</v>
       </c>
-      <c r="O8" s="3" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="P8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>October 28, 2021</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S8" s="3" t="inlineStr"/>
-      <c r="T8" s="3" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr"/>
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>2021-06-014</t>
         </is>
       </c>
-      <c r="U8" s="3" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V8" s="3" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W8" s="3" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X8" s="3" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Y8" s="3" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>June 28, 2021</t>
         </is>
       </c>
-      <c r="Z8" s="3" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>Lucky Gems Construction</t>
         </is>
       </c>
-      <c r="AA8" s="3" t="inlineStr"/>
-      <c r="AB8" s="3" t="n"/>
+      <c r="AA8" s="4" t="inlineStr"/>
+      <c r="AB8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Batanes</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>102322</v>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Ivana Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>IVANA</t>
         </is>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="n">
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="4" t="n">
         <v>17516777.66</v>
       </c>
-      <c r="M9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3" t="n">
+      <c r="M9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="n">
         <v>12530440.87</v>
       </c>
-      <c r="O9" s="3" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3" t="inlineStr">
+      <c r="P9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>February 07, 2024</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>March 27, 2025</t>
         </is>
       </c>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>2022-07-0112</t>
         </is>
       </c>
-      <c r="T9" s="3" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>2022-07-0112</t>
         </is>
       </c>
-      <c r="U9" s="3" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>July 12, 2022</t>
         </is>
       </c>
-      <c r="V9" s="3" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>July 12, 2022</t>
         </is>
       </c>
-      <c r="W9" s="3" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="X9" s="3" t="inlineStr">
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>October 17, 2022</t>
         </is>
       </c>
-      <c r="Y9" s="3" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>October 20, 2022</t>
         </is>
       </c>
-      <c r="Z9" s="3" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>Wakaii Construction</t>
         </is>
       </c>
-      <c r="AA9" s="3" t="inlineStr">
+      <c r="AA9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AB9" s="3" t="n"/>
+      <c r="AB9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>104173</v>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Solano East CS</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>SOLANO</t>
         </is>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="n">
+      <c r="H10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="J10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="4" t="n">
         <v>12975814.87</v>
       </c>
-      <c r="M10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3" t="n">
+      <c r="M10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="n">
         <v>8950988.1</v>
       </c>
-      <c r="O10" s="3" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="P10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="inlineStr">
         <is>
           <t>April 7, 2024</t>
         </is>
       </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>September 15, 2024</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>PB5-001-SDONV-GABALDON-SECS-INFRA</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>PB5-001-SDONV-GABALDON-SECS-INFRA</t>
         </is>
       </c>
-      <c r="U10" s="3" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>May 19, 2023</t>
         </is>
       </c>
-      <c r="V10" s="3" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>May 25, 2023</t>
         </is>
       </c>
-      <c r="W10" s="3" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
         <is>
           <t>June 6, 2023</t>
         </is>
       </c>
-      <c r="X10" s="3" t="inlineStr">
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>July 10, 2023</t>
         </is>
       </c>
-      <c r="Y10" s="3" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>August 4, 2023</t>
         </is>
       </c>
-      <c r="Z10" s="3" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AA10" s="3" t="inlineStr">
+      <c r="AA10" s="4" t="inlineStr">
         <is>
           <t>with time extension and additional works Savings Contract: 4,024,727.00 CD: 90 CD</t>
         </is>
       </c>
-      <c r="AB10" s="3" t="n"/>
+      <c r="AB10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>104182</v>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Solano North ES</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>SOLANO</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="n">
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="J11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="4" t="n">
         <v>18633863.75</v>
       </c>
-      <c r="M11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3" t="n">
+      <c r="M11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="n">
         <v>11953716.99</v>
       </c>
-      <c r="O11" s="3" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="Q11" s="4" t="inlineStr">
         <is>
           <t>May 26, 2025</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>PB 10-001 S.2024</t>
         </is>
       </c>
-      <c r="T11" s="3" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr">
         <is>
           <t>PB 10-001 S.2024</t>
         </is>
       </c>
-      <c r="U11" s="3" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>August 6, 2024</t>
         </is>
       </c>
-      <c r="V11" s="3" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="W11" s="3" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
         <is>
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="X11" s="3" t="inlineStr">
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>October 3, 2024</t>
         </is>
       </c>
-      <c r="Y11" s="3" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>December 27, 2024</t>
         </is>
       </c>
-      <c r="Z11" s="3" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>KNB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA11" s="3" t="inlineStr">
+      <c r="AA11" s="4" t="inlineStr">
         <is>
           <t>On Going Construction with Variation Order</t>
         </is>
       </c>
-      <c r="AB11" s="3" t="n"/>
+      <c r="AB11" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
+++ b/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">

--- a/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
+++ b/Filtered_By_Region/Region II/Region II_GABALDON.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -449,352 +449,363 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="58" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
-    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="58" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
     <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="27" customWidth="1" min="18" max="18"/>
-    <col width="35" customWidth="1" min="19" max="19"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
     <col width="35" customWidth="1" min="20" max="20"/>
-    <col width="31" customWidth="1" min="21" max="21"/>
-    <col width="27" customWidth="1" min="22" max="22"/>
-    <col width="19" customWidth="1" min="23" max="23"/>
-    <col width="33" customWidth="1" min="24" max="24"/>
-    <col width="31" customWidth="1" min="25" max="25"/>
-    <col width="25" customWidth="1" min="26" max="26"/>
-    <col width="83" customWidth="1" min="27" max="27"/>
-    <col width="28" customWidth="1" min="28" max="28"/>
+    <col width="35" customWidth="1" min="21" max="21"/>
+    <col width="31" customWidth="1" min="22" max="22"/>
+    <col width="27" customWidth="1" min="23" max="23"/>
+    <col width="19" customWidth="1" min="24" max="24"/>
+    <col width="33" customWidth="1" min="25" max="25"/>
+    <col width="31" customWidth="1" min="26" max="26"/>
+    <col width="25" customWidth="1" min="27" max="27"/>
+    <col width="83" customWidth="1" min="28" max="28"/>
+    <col width="28" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="AA1" s="2" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AB1" s="3" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Batanes</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="E2" s="4" t="n">
         <v>500062</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Itbud Integrated School</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>UYUGAN</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="H2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="M2" s="4" t="n">
         <v>8995156.390000001</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="n">
         <v>8526166.779999999</v>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>October 27, 2021</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>April 2024</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr"/>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr"/>
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>2021-06-016</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>April 27,2021</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>June 23,2021</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>June 28,2021</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="AA2" s="4" t="inlineStr">
         <is>
           <t>KNB Construction</t>
         </is>
       </c>
-      <c r="AA2" s="4" t="inlineStr"/>
-      <c r="AB2" s="5" t="n"/>
+      <c r="AB2" s="4" t="inlineStr"/>
+      <c r="AC2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Cagayan</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="E3" s="4" t="n">
         <v>102442</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Aparri East CS</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>APARRI</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="M3" s="4" t="n">
         <v>8951555.83</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="inlineStr"/>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="N3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="inlineStr"/>
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>Reverted</t>
         </is>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="Q3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="4" t="inlineStr"/>
       <c r="R3" s="4" t="inlineStr"/>
       <c r="S3" s="4" t="inlineStr"/>
       <c r="T3" s="4" t="inlineStr"/>
@@ -805,933 +816,958 @@
       <c r="Y3" s="4" t="inlineStr"/>
       <c r="Z3" s="4" t="inlineStr"/>
       <c r="AA3" s="4" t="inlineStr"/>
-      <c r="AB3" s="5" t="n"/>
+      <c r="AB3" s="4" t="inlineStr"/>
+      <c r="AC3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Cagayan</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>102403</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Amulung East CS</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>AMULUNG</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="H4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="K4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="M4" s="4" t="n">
         <v>8667454.452346232</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>5526283.97</v>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="Q4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>October 27, 2021</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>April 2024</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr"/>
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>2021-06-017</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>June 23,2021</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>June 28,2021</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="AA4" s="4" t="inlineStr">
         <is>
           <t>KNB Construction</t>
         </is>
       </c>
-      <c r="AA4" s="4" t="inlineStr"/>
-      <c r="AB4" s="5" t="n"/>
+      <c r="AB4" s="4" t="inlineStr"/>
+      <c r="AC4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="E5" s="4" t="n">
         <v>104202</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Imugan ES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Santa Fe</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="H5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="M5" s="4" t="n">
         <v>7013953.09</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="n">
         <v>7915455.79</v>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>August 29, 2021</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>November 5, 2021</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr"/>
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>2021-02-004</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr"/>
       <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr"/>
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>December 17, 2020</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>February 23,2021</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>March 1, 2021</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="AA5" s="4" t="inlineStr">
         <is>
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="inlineStr"/>
-      <c r="AB5" s="5" t="n"/>
+      <c r="AB5" s="4" t="inlineStr"/>
+      <c r="AC5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Batanes</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="E6" s="4" t="n">
         <v>102316</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Itbayat Central School</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>ITBAYAT</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="H6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="M6" s="4" t="n">
         <v>23912552</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="n">
         <v>23896225.01</v>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>December 27, 2021</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>April 28, 2023</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr"/>
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>2021-06-015</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>April 6, 2021</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>June 29, 2021</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="AA6" s="4" t="inlineStr">
         <is>
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AB6" s="4" t="inlineStr">
         <is>
           <t>Total CA due to variation: 24,376,207.54</t>
         </is>
       </c>
-      <c r="AB6" s="5" t="n"/>
+      <c r="AC6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="E7" s="4" t="n">
         <v>104089</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Kongkong Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>KASIBU</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="H7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="K7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="M7" s="4" t="n">
         <v>6795389</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="n">
         <v>4371705.54</v>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>October 28, 2021</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>January 10,2022</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>2021-06-013</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>June 29, 2021</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Zyrrone Construction</t>
         </is>
       </c>
-      <c r="AA7" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Total CA due to variation: 4,798,651.92</t>
         </is>
       </c>
-      <c r="AB7" s="5" t="n"/>
+      <c r="AC7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Tuguegarao City</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="E8" s="4" t="n">
         <v>104406</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Tuguegarao West CS</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>TUGUEGARAO CITY(Capital)</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="H8" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="J8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="K8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="M8" s="4" t="n">
         <v>9764168</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4" t="n">
         <v>6878702.89</v>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>October 28, 2021</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr"/>
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>2021-06-014</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>April 8,2021</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>April 27, 2021</t>
         </is>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>June 28, 2021</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
+      <c r="AA8" s="4" t="inlineStr">
         <is>
           <t>Lucky Gems Construction</t>
         </is>
       </c>
-      <c r="AA8" s="4" t="inlineStr"/>
-      <c r="AB8" s="5" t="n"/>
+      <c r="AB8" s="4" t="inlineStr"/>
+      <c r="AC8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="4" t="n">
+        <v>172</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Batanes</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="E9" s="4" t="n">
         <v>102322</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Ivana Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>IVANA</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="H9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="K9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="M9" s="4" t="n">
         <v>17516777.66</v>
       </c>
-      <c r="M9" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="n">
         <v>12530440.87</v>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>February 07, 2024</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>March 27, 2025</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>2022-07-0112</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>2022-07-0112</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>July 12, 2022</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>July 12, 2022</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>October 17, 2022</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>October 20, 2022</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="AA9" s="4" t="inlineStr">
         <is>
           <t>Wakaii Construction</t>
         </is>
       </c>
-      <c r="AA9" s="4" t="inlineStr">
+      <c r="AB9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AB9" s="5" t="n"/>
+      <c r="AC9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="4" t="n">
+        <v>187</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="E10" s="4" t="n">
         <v>104173</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>Solano East CS</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>SOLANO</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="H10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="K10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="M10" s="4" t="n">
         <v>12975814.87</v>
       </c>
-      <c r="M10" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="n">
         <v>8950988.1</v>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="Q10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>April 7, 2024</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>September 15, 2024</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>PB5-001-SDONV-GABALDON-SECS-INFRA</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>PB5-001-SDONV-GABALDON-SECS-INFRA</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>May 19, 2023</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
         <is>
           <t>May 25, 2023</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr">
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>June 6, 2023</t>
         </is>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>July 10, 2023</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>August 4, 2023</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr">
+      <c r="AA10" s="4" t="inlineStr">
         <is>
           <t>Pecdasen Builders</t>
         </is>
       </c>
-      <c r="AA10" s="4" t="inlineStr">
+      <c r="AB10" s="4" t="inlineStr">
         <is>
           <t>with time extension and additional works Savings Contract: 4,024,727.00 CD: 90 CD</t>
         </is>
       </c>
-      <c r="AB10" s="5" t="n"/>
+      <c r="AC10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="4" t="n">
+        <v>223</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Region II</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Nueva Vizcaya</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="E11" s="4" t="n">
         <v>104182</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Solano North ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>SOLANO</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="K11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="M11" s="4" t="n">
         <v>18633863.75</v>
       </c>
-      <c r="M11" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="n">
         <v>11953716.99</v>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="Q11" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>May 26, 2025</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr">
         <is>
           <t>PB 10-001 S.2024</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>PB 10-001 S.2024</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>August 6, 2024</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr">
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>October 3, 2024</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>December 27, 2024</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr">
+      <c r="AA11" s="4" t="inlineStr">
         <is>
           <t>KNB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA11" s="4" t="inlineStr">
+      <c r="AB11" s="4" t="inlineStr">
         <is>
           <t>On Going Construction with Variation Order</t>
         </is>
       </c>
-      <c r="AB11" s="5" t="n"/>
+      <c r="AC11" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AC2:AC11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
